--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_24_2.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_24</t>
+          <t>model_24_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999512178808344</v>
+        <v>0.999930459662462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990445338371035</v>
+        <v>0.9990855483125868</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999120751982037</v>
+        <v>0.9999910221661586</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999700719696299</v>
+        <v>0.9998864079073156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9998076211140715</v>
+        <v>0.9999446692510617</v>
       </c>
       <c r="G2" t="n">
-        <v>4.55359669534934e-05</v>
+        <v>6.491285262369794e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008918857229465647</v>
+        <v>0.0008536005104103401</v>
       </c>
       <c r="I2" t="n">
-        <v>6.571313490163693e-05</v>
+        <v>5.691434009108224e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002188427701799628</v>
+        <v>5.784810177812768e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001422779525407999</v>
+        <v>3.176976789361796e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004597925711037896</v>
+        <v>0.0007097877622003524</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006748034302928032</v>
+        <v>0.008056851284695401</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000068868874116</v>
+        <v>1.000098174594171</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007035312093560397</v>
+        <v>0.008399848123866257</v>
       </c>
       <c r="P2" t="n">
-        <v>101.9940161235595</v>
+        <v>101.2849298330318</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.9679249431557</v>
+        <v>151.2588386526281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_23</t>
+          <t>model_24_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999512424593576</v>
+        <v>0.9999398348676793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990445310964472</v>
+        <v>0.9990824977783417</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999120935977098</v>
+        <v>0.9999833062814676</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997009115156036</v>
+        <v>0.9998897088626818</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9998077252388524</v>
+        <v>0.9999418736256694</v>
       </c>
       <c r="G3" t="n">
-        <v>4.551302398099693e-05</v>
+        <v>5.616151007722572e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008918882812289016</v>
+        <v>0.0008564480502250904</v>
       </c>
       <c r="I3" t="n">
-        <v>6.569938350032455e-05</v>
+        <v>1.058286431597222e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002187025061282398</v>
+        <v>5.616705164981333e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001422009448142822</v>
+        <v>3.337495798289278e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004601897611756657</v>
+        <v>0.0006751302416461896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.006746334114242855</v>
+        <v>0.007494098349850081</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000068834175025</v>
+        <v>1.000084939010335</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007033539524323017</v>
+        <v>0.007813137631525403</v>
       </c>
       <c r="P3" t="n">
-        <v>101.995024063252</v>
+        <v>101.5745578195375</v>
       </c>
       <c r="Q3" t="n">
-        <v>151.9689328828483</v>
+        <v>151.5484666391337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_22</t>
+          <t>model_24_2_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999512680961621</v>
+        <v>0.9999473431909008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990445254650413</v>
+        <v>0.9990781432397594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999912113169962</v>
+        <v>0.9999727778131556</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997011063960519</v>
+        <v>0.9998933731416987</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9998078314695052</v>
+        <v>0.99993768645696</v>
       </c>
       <c r="G4" t="n">
-        <v>4.54890931493166e-05</v>
+        <v>4.915281992730088e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000891893537899119</v>
+        <v>0.0008605128208494955</v>
       </c>
       <c r="I4" t="n">
-        <v>6.568475561353774e-05</v>
+        <v>1.725731203618261e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002185600036760852</v>
+        <v>5.430097470287302e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001421223796448115</v>
+        <v>3.577914336952782e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004606160889858703</v>
+        <v>0.0006404493769572729</v>
       </c>
       <c r="M4" t="n">
-        <v>0.006744560263598851</v>
+        <v>0.007010907211431405</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000068797981889</v>
+        <v>1.000074339024611</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00703169015718472</v>
+        <v>0.007309376046000697</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9960759434934</v>
+        <v>101.8411526782291</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.9699847630896</v>
+        <v>151.8150614978254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_21</t>
+          <t>model_24_2_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999512951933807</v>
+        <v>0.999953212947946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990445199522805</v>
+        <v>0.9990726587889456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999121274118818</v>
+        <v>0.9999598612660282</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997013277089588</v>
+        <v>0.9998967492847458</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998079480740237</v>
+        <v>0.999932053187385</v>
       </c>
       <c r="G5" t="n">
-        <v>4.546379908526545e-05</v>
+        <v>4.367365937816402e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000891898683819323</v>
+        <v>0.0008656323149446995</v>
       </c>
       <c r="I5" t="n">
-        <v>6.56741115042413e-05</v>
+        <v>2.544566536292001e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002183981730142948</v>
+        <v>5.258163436859177e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001420361422592681</v>
+        <v>3.901364986575588e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004610967593241103</v>
+        <v>0.0006066166406462769</v>
       </c>
       <c r="M5" t="n">
-        <v>0.006742684857329864</v>
+        <v>0.006608604949470351</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000068759726992</v>
+        <v>1.000066052308782</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007029734910988236</v>
+        <v>0.006889946943867472</v>
       </c>
       <c r="P5" t="n">
-        <v>101.9971883463684</v>
+        <v>102.0775307956416</v>
       </c>
       <c r="Q5" t="n">
-        <v>151.9710971659646</v>
+        <v>152.0514396152378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_20</t>
+          <t>model_24_2_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999513259099369</v>
+        <v>0.9999576736280398</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990445129038295</v>
+        <v>0.9990662607379901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999121454102495</v>
+        <v>0.9999450212747943</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997015747303593</v>
+        <v>0.9998995875747371</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998080792858606</v>
+        <v>0.9999251195732806</v>
       </c>
       <c r="G6" t="n">
-        <v>4.543512652829784e-05</v>
+        <v>3.950981031184957e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008919052632389963</v>
+        <v>0.0008716046146696587</v>
       </c>
       <c r="I6" t="n">
-        <v>6.566065990542779e-05</v>
+        <v>3.485337242185404e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002182175435277698</v>
+        <v>5.113620199376897e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001419391017165988</v>
+        <v>4.29947872078115e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004616502185207147</v>
+        <v>0.0005746348062756417</v>
       </c>
       <c r="M6" t="n">
-        <v>0.006740558324671469</v>
+        <v>0.006285682963039861</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000068716362442</v>
+        <v>1.000059754878061</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007027517847432044</v>
+        <v>0.006553277499933971</v>
       </c>
       <c r="P6" t="n">
-        <v>101.9984500800016</v>
+        <v>102.2779231091374</v>
       </c>
       <c r="Q6" t="n">
-        <v>151.9723588995979</v>
+        <v>152.2518319287337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_19</t>
+          <t>model_24_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999513578717713</v>
+        <v>0.9999609488201749</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990445041130417</v>
+        <v>0.999059326278348</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999121598215889</v>
+        <v>0.9999288046190631</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99970184969154</v>
+        <v>0.9999017064228555</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998082224975772</v>
+        <v>0.9999171069312666</v>
       </c>
       <c r="G7" t="n">
-        <v>4.540529155890368e-05</v>
+        <v>3.645256221804852e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008919134690534578</v>
+        <v>0.0008780776283578966</v>
       </c>
       <c r="I7" t="n">
-        <v>6.564988917555364e-05</v>
+        <v>4.513380616282306e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002180164836326658</v>
+        <v>5.005715380727771e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001418331864041098</v>
+        <v>4.759547998505038e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004622544560452295</v>
+        <v>0.0005506404921237618</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006738344867911086</v>
+        <v>0.006037595731584595</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000068671239852</v>
+        <v>1.0000551310774</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007025210159234885</v>
+        <v>0.006294628681424288</v>
       </c>
       <c r="P7" t="n">
-        <v>101.999763811096</v>
+        <v>102.4389976158643</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.9736726306922</v>
+        <v>152.4129064354605</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_18</t>
+          <t>model_24_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999513928175002</v>
+        <v>0.9999632372813387</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990444920677948</v>
+        <v>0.9990519832773929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999121805344672</v>
+        <v>0.999911643763908</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997021446723159</v>
+        <v>0.9999031536564948</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998083787902238</v>
+        <v>0.9999082752104984</v>
       </c>
       <c r="G8" t="n">
-        <v>4.537267125483142e-05</v>
+        <v>3.431638417346109e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008919247127627579</v>
+        <v>0.0008849319974290318</v>
       </c>
       <c r="I8" t="n">
-        <v>6.563440880899299e-05</v>
+        <v>5.601280842347805e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000217800784806658</v>
+        <v>4.932013314956343e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001417175968078255</v>
+        <v>5.266647078652074e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004629097171554574</v>
+        <v>0.0005330598572805857</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006735923934756941</v>
+        <v>0.005858018792515187</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000068621904705</v>
+        <v>1.000051900308698</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007022686161944344</v>
+        <v>0.006107406780283184</v>
       </c>
       <c r="P8" t="n">
-        <v>102.0012011778077</v>
+        <v>102.559775290292</v>
       </c>
       <c r="Q8" t="n">
-        <v>151.975109997404</v>
+        <v>152.5336841098882</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_17</t>
+          <t>model_24_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999514300153264</v>
+        <v>0.9999647236393918</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990444754372332</v>
+        <v>0.9990444586479739</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999121926906331</v>
+        <v>0.9998939694673282</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997024707491294</v>
+        <v>0.9999039622709174</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998085461320064</v>
+        <v>0.9998988768401595</v>
       </c>
       <c r="G9" t="n">
-        <v>4.533794871690505e-05</v>
+        <v>3.292893417442083e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008919402366620191</v>
+        <v>0.0008919559086986438</v>
       </c>
       <c r="I9" t="n">
-        <v>6.562532354792972e-05</v>
+        <v>6.721730322914284e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002175623476215947</v>
+        <v>4.890833679725081e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001415938355847622</v>
+        <v>5.806282001319682e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004636551087358602</v>
+        <v>0.0005165341720027275</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006733346026820919</v>
+        <v>0.005738373826653404</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000068569390127</v>
+        <v>1.000049801920859</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007019998507130481</v>
+        <v>0.005982668280525441</v>
       </c>
       <c r="P9" t="n">
-        <v>102.0027323122938</v>
+        <v>102.6423176570013</v>
       </c>
       <c r="Q9" t="n">
-        <v>151.97664113189</v>
+        <v>152.6162264765975</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_16</t>
+          <t>model_24_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999514694282895</v>
+        <v>0.9999655638830691</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990444594643941</v>
+        <v>0.9990369239082258</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999122062833767</v>
+        <v>0.9998761261075987</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997028330163847</v>
+        <v>0.9999041999046751</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998087320907899</v>
+        <v>0.9998891319273728</v>
       </c>
       <c r="G10" t="n">
-        <v>4.530115844590129e-05</v>
+        <v>3.214460358409818e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008919551466061861</v>
+        <v>0.0008989892575165648</v>
       </c>
       <c r="I10" t="n">
-        <v>6.561516461918912e-05</v>
+        <v>7.852897441803676e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002172974468956685</v>
+        <v>4.878731902680423e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001414563057574288</v>
+        <v>6.365814672242049e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004644881500461999</v>
+        <v>0.0005011237707653976</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006730613526707747</v>
+        <v>0.005669621114686428</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000068513748297</v>
+        <v>1.000048615694491</v>
       </c>
       <c r="O10" t="n">
-        <v>0.007017149678830437</v>
+        <v>0.005910988623272299</v>
       </c>
       <c r="P10" t="n">
-        <v>102.0043559060901</v>
+        <v>102.6905319451274</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.9782647256864</v>
+        <v>152.6644407647236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_15</t>
+          <t>model_24_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999515105642556</v>
+        <v>0.9999658975784281</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990444374442591</v>
+        <v>0.9990294800987868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999122206186712</v>
+        <v>0.9998584375046217</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997032156108412</v>
+        <v>0.9999039717513821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998089284737359</v>
+        <v>0.9998792646520317</v>
       </c>
       <c r="G11" t="n">
-        <v>4.526275982716339e-05</v>
+        <v>3.183311361399981e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008919757014356578</v>
+        <v>0.0009059377268824565</v>
       </c>
       <c r="I11" t="n">
-        <v>6.560445072368926e-05</v>
+        <v>8.974253866263047e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002170176823082146</v>
+        <v>4.890350875969894e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001413110665159519</v>
+        <v>6.932373147135418e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004654045001761759</v>
+        <v>0.0004883387741419016</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006727760387169224</v>
+        <v>0.005642084155168177</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000068455673992</v>
+        <v>1.00004814459516</v>
       </c>
       <c r="O11" t="n">
-        <v>0.007014175075234946</v>
+        <v>0.005882279358377991</v>
       </c>
       <c r="P11" t="n">
-        <v>102.006051884876</v>
+        <v>102.7100070026951</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.9799607044722</v>
+        <v>152.6839158222913</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_14</t>
+          <t>model_24_2_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999515543419897</v>
+        <v>0.9999658332222801</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990444094788914</v>
+        <v>0.9990221929924019</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999912227091732</v>
+        <v>0.9998410893509272</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997036466083581</v>
+        <v>0.9999033682877162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998091448126334</v>
+        <v>0.9998694213459027</v>
       </c>
       <c r="G12" t="n">
-        <v>4.522189523398335e-05</v>
+        <v>3.189318725337959e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008920018058788138</v>
+        <v>0.0009127399208257366</v>
       </c>
       <c r="I12" t="n">
-        <v>6.559961289518745e-05</v>
+        <v>0.0001007402775022161</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002167025239453815</v>
+        <v>4.921082968972322e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001411510684202845</v>
+        <v>7.497555359596965e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004664202858715532</v>
+        <v>0.0004770786271600514</v>
       </c>
       <c r="M12" t="n">
-        <v>0.006724722688258852</v>
+        <v>0.005647405355858529</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000068393870132</v>
+        <v>1.000048235450899</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007011008055193055</v>
+        <v>0.005887827093598134</v>
       </c>
       <c r="P12" t="n">
-        <v>102.0078583611644</v>
+        <v>102.7062362734133</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.9817671807606</v>
+        <v>152.6801450930095</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_13</t>
+          <t>model_24_2_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999516001634891</v>
+        <v>0.9999654724125805</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990443754350622</v>
+        <v>0.9990151741440435</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999122279119083</v>
+        <v>0.9998242986374153</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997041187985743</v>
+        <v>0.9999024776974217</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998093786593</v>
+        <v>0.9998597572968172</v>
       </c>
       <c r="G13" t="n">
-        <v>4.517912287564614e-05</v>
+        <v>3.222998727019195e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008920335842990366</v>
+        <v>0.0009192917076764204</v>
       </c>
       <c r="I13" t="n">
-        <v>6.559899991278383e-05</v>
+        <v>0.0001113846310966626</v>
       </c>
       <c r="J13" t="n">
-        <v>0.000216357244240394</v>
+        <v>4.966437321360542e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001409781220765889</v>
+        <v>8.052445004597529e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004675596470058761</v>
+        <v>0.0004667144353269459</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006721541703779434</v>
+        <v>0.005677146049749993</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000068329180957</v>
+        <v>1.000048744829298</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007007691649618804</v>
+        <v>0.005918833910400282</v>
       </c>
       <c r="P13" t="n">
-        <v>102.0097509222184</v>
+        <v>102.6852265142093</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.9836597418146</v>
+        <v>152.6591353338056</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999516461172259</v>
+        <v>0.9999648934832991</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999044332078837</v>
+        <v>0.9990084749229157</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999122234813079</v>
+        <v>0.9998082236983371</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999704621107971</v>
+        <v>0.9999013607113751</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998096247426002</v>
+        <v>0.9998503878047001</v>
       </c>
       <c r="G14" t="n">
-        <v>4.513622707950798e-05</v>
+        <v>3.277039234227569e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008920740554321207</v>
+        <v>0.0009255451365374859</v>
       </c>
       <c r="I14" t="n">
-        <v>6.560231124964364e-05</v>
+        <v>0.0001215752245717603</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002159899404836723</v>
+        <v>5.023321142213351e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.000140796125866658</v>
+        <v>8.590421799694691e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004688118231976927</v>
+        <v>0.0004572138396665164</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006718350026569618</v>
+        <v>0.005724542981083791</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000068264305093</v>
+        <v>1.000049562141225</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007004364096102483</v>
+        <v>0.005968248627226133</v>
       </c>
       <c r="P14" t="n">
-        <v>102.0116507454216</v>
+        <v>102.6519702454398</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.9855595650179</v>
+        <v>152.6258790650361</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_11</t>
+          <t>model_24_2_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999516912481102</v>
+        <v>0.999964154594378</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990442790742161</v>
+        <v>0.9990021350555572</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999121988194016</v>
+        <v>0.9997928940966189</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9997051708878367</v>
+        <v>0.9999000826179821</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998098840709925</v>
+        <v>0.9998413584152118</v>
       </c>
       <c r="G15" t="n">
-        <v>4.509409937997494e-05</v>
+        <v>3.346011271667364e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008921235329191136</v>
+        <v>0.0009314631244285609</v>
       </c>
       <c r="I15" t="n">
-        <v>6.562074303617524e-05</v>
+        <v>0.0001312933167204469</v>
       </c>
       <c r="J15" t="n">
-        <v>0.000215587924890566</v>
+        <v>5.088409543114452e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001406043339633706</v>
+        <v>9.108870607579572e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004702105751343952</v>
+        <v>0.0004485467974575479</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00671521402339307</v>
+        <v>0.00578447168863965</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000068200590903</v>
+        <v>1.000050605278525</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007001094586778288</v>
+        <v>0.006030728623932172</v>
       </c>
       <c r="P15" t="n">
-        <v>102.0135183083241</v>
+        <v>102.6103129874242</v>
       </c>
       <c r="Q15" t="n">
-        <v>151.9874271279204</v>
+        <v>152.5842218070205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_10</t>
+          <t>model_24_2_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.999951736741208</v>
+        <v>0.9999633105264454</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990442150748873</v>
+        <v>0.99899614284014</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999121723392462</v>
+        <v>0.9997784142933838</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997057669413594</v>
+        <v>0.9998987045968626</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998101653565369</v>
+        <v>0.9998327538358771</v>
       </c>
       <c r="G16" t="n">
-        <v>4.505163357015459e-05</v>
+        <v>3.42480130815254e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008921832734833121</v>
+        <v>0.0009370565944926906</v>
       </c>
       <c r="I16" t="n">
-        <v>6.564053374354159e-05</v>
+        <v>0.0001404726851553669</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002151520726060879</v>
+        <v>5.158586880366262e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001403963031748147</v>
+        <v>9.602927697951473e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004717424381706546</v>
+        <v>0.0004406178984090331</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006712051368259527</v>
+        <v>0.005852180198996387</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000068136365353</v>
+        <v>1.000051796903842</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006997797290868111</v>
+        <v>0.006101319625750735</v>
       </c>
       <c r="P16" t="n">
-        <v>102.0154026265973</v>
+        <v>102.5637640143141</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.9893114461935</v>
+        <v>152.5376728339103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_9</t>
+          <t>model_24_2_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999517792952516</v>
+        <v>0.9999624041395715</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9990441341531091</v>
+        <v>0.9989905192394042</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999121238202783</v>
+        <v>0.9997648043826882</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997063934116336</v>
+        <v>0.9998972810865404</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998104505431932</v>
+        <v>0.9998246093012846</v>
       </c>
       <c r="G17" t="n">
-        <v>4.501191123829519e-05</v>
+        <v>3.509408544249356e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008922588104112042</v>
+        <v>0.000942305978932079</v>
       </c>
       <c r="I17" t="n">
-        <v>6.567679579275857e-05</v>
+        <v>0.0001491005913923069</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002146939786768925</v>
+        <v>5.231080808469813e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001401853872348255</v>
+        <v>0.0001007056997385025</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004734643156852089</v>
+        <v>0.0004333760173576867</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006709091685041664</v>
+        <v>0.005924026117641073</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000068076289057</v>
+        <v>1.00005307650884</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006994711607808275</v>
+        <v>0.006176224173893678</v>
       </c>
       <c r="P17" t="n">
-        <v>102.0171668180699</v>
+        <v>102.5149558952061</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.9910756376661</v>
+        <v>152.4888647148023</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_8</t>
+          <t>model_24_2_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999518156395639</v>
+        <v>0.9999614631495115</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990440337086194</v>
+        <v>0.998985275299926</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999120547954256</v>
+        <v>0.9997520646603597</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9997070788236364</v>
+        <v>0.9998958420246034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998107545071421</v>
+        <v>0.9998169382511436</v>
       </c>
       <c r="G18" t="n">
-        <v>4.497798541810097e-05</v>
+        <v>3.597245835877508e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008923525709333157</v>
+        <v>0.0009472009662525525</v>
       </c>
       <c r="I18" t="n">
-        <v>6.572838350591444e-05</v>
+        <v>0.0001571768478934527</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002141927847808746</v>
+        <v>5.304366720745379e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001399605841433945</v>
+        <v>0.0001051102575504532</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004753771008149919</v>
+        <v>0.0004267770992517916</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006706562861712471</v>
+        <v>0.005997704424092195</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000068024979439</v>
+        <v>1.000054404965395</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006992075127234572</v>
+        <v>0.006253039118385545</v>
       </c>
       <c r="P18" t="n">
-        <v>102.0186748016575</v>
+        <v>102.4655139157889</v>
       </c>
       <c r="Q18" t="n">
-        <v>151.9925836212537</v>
+        <v>152.4394227353852</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_7</t>
+          <t>model_24_2_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999518435025699</v>
+        <v>0.9999605135108459</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999043910720668</v>
+        <v>0.9989804023089764</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999119476720908</v>
+        <v>0.9997402006659927</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997077774732817</v>
+        <v>0.9998944011199078</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998110457649262</v>
+        <v>0.9998097500547325</v>
       </c>
       <c r="G19" t="n">
-        <v>4.495197652503753e-05</v>
+        <v>3.68589043687379e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008924673747874058</v>
+        <v>0.0009517496894044305</v>
       </c>
       <c r="I19" t="n">
-        <v>6.580844521782516e-05</v>
+        <v>0.0001646979428723067</v>
       </c>
       <c r="J19" t="n">
-        <v>0.000213681911122094</v>
+        <v>5.37774647765766e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001397451781699596</v>
+        <v>0.0001092375707702545</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004775066744662387</v>
+        <v>0.0004208039077732312</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006704623518515975</v>
+        <v>0.00607115346278925</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000067985643431</v>
+        <v>1.000055745631747</v>
       </c>
       <c r="O19" t="n">
-        <v>0.006990053222183207</v>
+        <v>0.006329615034720405</v>
       </c>
       <c r="P19" t="n">
-        <v>102.0198316527548</v>
+        <v>102.4168266605795</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.993740472351</v>
+        <v>152.3907354801757</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_6</t>
+          <t>model_24_2_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999518600248921</v>
+        <v>0.9999595736213347</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990437563828735</v>
+        <v>0.9989758866394295</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999117983145841</v>
+        <v>0.9997291995257562</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9997085353507452</v>
+        <v>0.9998929919838054</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998113428578205</v>
+        <v>0.9998030518155606</v>
       </c>
       <c r="G20" t="n">
-        <v>4.493655366255952e-05</v>
+        <v>3.773624997112511e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000892611442344039</v>
+        <v>0.0009559648687115321</v>
       </c>
       <c r="I20" t="n">
-        <v>6.592007185540581e-05</v>
+        <v>0.0001716720376023723</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002131277282990382</v>
+        <v>5.44950838180275e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001395254567150284</v>
+        <v>0.0001130835607101999</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004798601937567144</v>
+        <v>0.0004153755054875496</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00670347325366183</v>
+        <v>0.006142983800330675</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000067962317799</v>
+        <v>1.000057072534586</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006988853988172844</v>
+        <v>0.006404503338440266</v>
       </c>
       <c r="P20" t="n">
-        <v>102.0205179633484</v>
+        <v>102.3697787755919</v>
       </c>
       <c r="Q20" t="n">
-        <v>151.9944267829447</v>
+        <v>152.3436875951881</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_5</t>
+          <t>model_24_2_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999518615228553</v>
+        <v>0.9999586593411635</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990435651472727</v>
+        <v>0.9989717299479397</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999116038753765</v>
+        <v>0.9997190311299369</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9997093049477518</v>
+        <v>0.9998916357093016</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998116271751595</v>
+        <v>0.9997968372251708</v>
       </c>
       <c r="G21" t="n">
-        <v>4.493515537958226e-05</v>
+        <v>3.858969037870611e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008927899523830469</v>
+        <v>0.000959844957759509</v>
       </c>
       <c r="I21" t="n">
-        <v>6.606539160160097e-05</v>
+        <v>0.0001781182199229334</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002125649757932767</v>
+        <v>5.518578247216935e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001393151836974389</v>
+        <v>0.0001166518495555663</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004824757406388834</v>
+        <v>0.0004104431485558707</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006703368957440897</v>
+        <v>0.006212060075265379</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000067960203028</v>
+        <v>1.000058363283063</v>
       </c>
       <c r="O21" t="n">
-        <v>0.006988745251845864</v>
+        <v>0.006476520333406542</v>
       </c>
       <c r="P21" t="n">
-        <v>102.0205801979712</v>
+        <v>102.3250508116051</v>
       </c>
       <c r="Q21" t="n">
-        <v>151.9944890175674</v>
+        <v>152.2989596312014</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_4</t>
+          <t>model_24_2_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999951840636648</v>
+        <v>0.9999577815980143</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990433290436529</v>
+        <v>0.9989679033345846</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999113456443333</v>
+        <v>0.9997096825615183</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9997101306009065</v>
+        <v>0.9998903231221291</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998119044997241</v>
+        <v>0.9997910940602773</v>
       </c>
       <c r="G22" t="n">
-        <v>4.495465173735618e-05</v>
+        <v>3.940902507998818e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008930103447484007</v>
+        <v>0.0009634169333575985</v>
       </c>
       <c r="I22" t="n">
-        <v>6.625838801475433e-05</v>
+        <v>0.0001840446784845837</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002119612333439756</v>
+        <v>5.585423284182885e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.000139110082336845</v>
+        <v>0.0001199494556632063</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004853718132423345</v>
+        <v>0.000405956567426706</v>
       </c>
       <c r="M22" t="n">
-        <v>0.006704823020584226</v>
+        <v>0.006277660796824577</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000067989689438</v>
+        <v>1.000059602449862</v>
       </c>
       <c r="O22" t="n">
-        <v>0.006990261217467529</v>
+        <v>0.006544913813494728</v>
       </c>
       <c r="P22" t="n">
-        <v>102.0197126309486</v>
+        <v>102.2830314098949</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.9936214505449</v>
+        <v>152.2569402294911</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_3</t>
+          <t>model_24_2_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999517895865503</v>
+        <v>0.9999569435262827</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990430400241013</v>
+        <v>0.9989643893195095</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999109982280335</v>
+        <v>0.9997010704014547</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9997109495359776</v>
+        <v>0.9998890826326687</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998121341743985</v>
+        <v>0.9997857896614442</v>
       </c>
       <c r="G23" t="n">
-        <v>4.500230476277627e-05</v>
+        <v>4.019132825429215e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000893280131813261</v>
+        <v>0.0009666971121827688</v>
       </c>
       <c r="I23" t="n">
-        <v>6.651803960006557e-05</v>
+        <v>0.0001895042961990248</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002113624033597086</v>
+        <v>5.648596660836072e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001389402214798871</v>
+        <v>0.0001229951314036927</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004885959755339768</v>
+        <v>0.0004018976828867766</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006708375717174484</v>
+        <v>0.006339663102586142</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000068061760164</v>
+        <v>1.000060785609954</v>
       </c>
       <c r="O23" t="n">
-        <v>0.006993965159706732</v>
+        <v>0.00660955568577503</v>
       </c>
       <c r="P23" t="n">
-        <v>102.0175937051098</v>
+        <v>102.243718601353</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.991502524706</v>
+        <v>152.2176274209492</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_2</t>
+          <t>model_24_2_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999516995660893</v>
+        <v>0.999956149665249</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9990426836181567</v>
+        <v>0.9989611636658677</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999105505352504</v>
+        <v>0.9996931771655213</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9997117587070893</v>
+        <v>0.9998879249920705</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999812307987314</v>
+        <v>0.9997809185779204</v>
       </c>
       <c r="G24" t="n">
-        <v>4.50863349115705e-05</v>
+        <v>4.093236268277208e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008936128211181</v>
+        <v>0.0009697081182675891</v>
       </c>
       <c r="I24" t="n">
-        <v>6.685263570555295e-05</v>
+        <v>0.0001945081570665401</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002107707130765654</v>
+        <v>5.707550862283872e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001388116743910592</v>
+        <v>0.0001257920064850776</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004921701514851909</v>
+        <v>0.0003982243057807997</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006714635873341941</v>
+        <v>0.006397840470250261</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000068188847874</v>
+        <v>1.000061906354943</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007000491823682547</v>
+        <v>0.006670209784424364</v>
       </c>
       <c r="P24" t="n">
-        <v>102.0138627053537</v>
+        <v>102.2071790883242</v>
       </c>
       <c r="Q24" t="n">
-        <v>151.9877715249499</v>
+        <v>152.1810879079204</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_1</t>
+          <t>model_24_2_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999515539559609</v>
+        <v>0.9999554064591755</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990422380997466</v>
+        <v>0.9989582208062854</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999099635514065</v>
+        <v>0.9996859492715686</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9997125381317963</v>
+        <v>0.9998868262645282</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998123967140371</v>
+        <v>0.9997764412096146</v>
       </c>
       <c r="G25" t="n">
-        <v>4.522225557491152e-05</v>
+        <v>4.162611292951686e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008940286929979681</v>
+        <v>0.0009724551485110647</v>
       </c>
       <c r="I25" t="n">
-        <v>6.729133500005027e-05</v>
+        <v>0.0001990902291101906</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002102007742603424</v>
+        <v>5.763504847450474e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001387460546301963</v>
+        <v>0.0001283628184581383</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004961409324307531</v>
+        <v>0.0003948799444745547</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006724749480457359</v>
+        <v>0.006451830199991074</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000068394415114</v>
+        <v>1.000062955587046</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007011035987990921</v>
+        <v>0.006726497968734391</v>
       </c>
       <c r="P25" t="n">
-        <v>102.0078424246588</v>
+        <v>102.1735657459513</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.9817512442551</v>
+        <v>152.1474745655475</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_24_2_0</t>
+          <t>model_24_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999513398701976</v>
+        <v>0.9999547094473076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990416883956378</v>
+        <v>0.9989555347466021</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999092123980255</v>
+        <v>0.9996793365333579</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9997132419062973</v>
+        <v>0.999885803426775</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998123650909834</v>
+        <v>0.9997723374117224</v>
       </c>
       <c r="G26" t="n">
-        <v>4.542209523770073e-05</v>
+        <v>4.227674291290832e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008945418176543428</v>
+        <v>0.0009749624673209484</v>
       </c>
       <c r="I26" t="n">
-        <v>6.785273112999318e-05</v>
+        <v>0.0002032823275395563</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002096861531526452</v>
+        <v>5.815594056350739e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001387694421413192</v>
+        <v>0.0001307191340515319</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0005005664953545348</v>
+        <v>0.0003918828327932483</v>
       </c>
       <c r="M26" t="n">
-        <v>0.006739591622472442</v>
+        <v>0.006502056821722516</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000068696653839</v>
+        <v>1.000063939603801</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007026509990719056</v>
+        <v>0.006778862841736382</v>
       </c>
       <c r="P26" t="n">
-        <v>101.9990237841248</v>
+        <v>102.1425468720964</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.972932603721</v>
+        <v>152.1164556916926</v>
       </c>
     </row>
   </sheetData>
